--- a/artfynd/A 50837-2025 artfynd.xlsx
+++ b/artfynd/A 50837-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,6 +2452,129 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131113915</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Trollknabbarna, Dockasberg, Nb</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>816315</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7375643</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Överkalix</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Överkalix</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>10:02</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Markus  Kristoffersson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Markus  Kristoffersson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
